--- a/medicine/Enfance/Tribunal_des_mineurs_(Suisse)/Tribunal_des_mineurs_(Suisse).xlsx
+++ b/medicine/Enfance/Tribunal_des_mineurs_(Suisse)/Tribunal_des_mineurs_(Suisse).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Suisse, le tribunal des mineurs est une juridiction spécialisée (tribunal pour enfants) qui traite les infractions pénales commises par des personnes de moins de 18 ans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, le tribunal des mineurs est une juridiction spécialisée (tribunal pour enfants) qui traite les infractions pénales commises par des personnes de moins de 18 ans.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres du tribunal pour mineurs sont les juges pour mineurs, les avocats pour mineurs représentent le ministère public devant le tribunal des mineurs (art. 6 PPMin). Le tribunal des mineurs est composé du président et de deux assesseurs (art. 7 PPMin). 
 La protection et l’éducation des jeunes sont la visée première de ces instances, avant la répression. La décision doit tenir compte de l'âge et apprécier le niveau de développement  de l’enfant ou du jeune (art. 4 PPMin). La procédure pénale applicable aux mineurs contient des dispositions spécifiques au cas des mineurs, telles que l'abandon de la procédure en cas de médiation réussie (article 17 PPMin)  ainsi que la prise en compte de l'exécution de peines préalables comme la détention provisoire et les sanctions éducatives préalables au passage devant le tribunal, ainsi que la façon dont le jeune a compris ces mesures antérieures au jugement.
